--- a/biology/Zoologie/Hemigrapsus/Hemigrapsus.xlsx
+++ b/biology/Zoologie/Hemigrapsus/Hemigrapsus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du  genre Hemigrapsus sont des crabes dont la carapace est approximativement quadrangulaire.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Systema brachyurorum[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Systema brachyurorum.
 Hemigrapsus affinis Dana, 1851
 Hemigrapsus crassimanus Dana, 1851
 Hemigrapsus crenulatus (H. Milne Edwards, 1837)
@@ -524,7 +538,7 @@
 Hemigrapsus crassimanus (H. Milne Edwards, 1837)
 Hemigrapsus oregonensis (Dana, 1851)
 Hemigrapsus pallipes (H. Milne Edwards, 1837)
-Hemigrapsus penicillatus (De Haan, 1835) - crabe japonais (introduit en Europe, dont dans le port du Havre[2])
+Hemigrapsus penicillatus (De Haan, 1835) - crabe japonais (introduit en Europe, dont dans le port du Havre)
 Hemigrapsus sanguineus (De Haan, 1835) - crabe sanguin
 Hemigrapsus sexdentatus (H. Milne Edwards, 1837)
 Hemigrapsus sinensis Rathbun, 1931
@@ -556,7 +570,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
